--- a/UsersIPTV.xlsx
+++ b/UsersIPTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fontes\costumer-notify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE879740-0E02-4506-9E4A-EF632EA28AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1743FD-44D8-4581-84F0-DD78B79AF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="1905" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Usuário</t>
   </si>
@@ -69,17 +69,32 @@
   </si>
   <si>
     <t>Telefone</t>
+  </si>
+  <si>
+    <t>F516Z6476b</t>
+  </si>
+  <si>
+    <t>Andressa chies pai e mae</t>
+  </si>
+  <si>
+    <t>5555991539301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,11 +113,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -114,6 +144,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +652,7 @@
   <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +663,7 @@
     <col min="5" max="5" width="47"/>
     <col min="6" max="6" width="8"/>
     <col min="7" max="7" width="6"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>983432277</v>
       </c>
@@ -676,8 +718,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>653559249</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45775.726122685184</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10546</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>

--- a/UsersIPTV.xlsx
+++ b/UsersIPTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fontes\costumer-notify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1743FD-44D8-4581-84F0-DD78B79AF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DBE910-0997-4BD9-A19B-634363D9E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Usuário</t>
   </si>
@@ -65,36 +65,21 @@
     <t>artoniotkm</t>
   </si>
   <si>
-    <t>5555996343084</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
-    <t>F516Z6476b</t>
-  </si>
-  <si>
-    <t>Andressa chies pai e mae</t>
-  </si>
-  <si>
-    <t>5555991539301</t>
+    <t>5555999724958</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,26 +98,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -144,18 +114,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +647,12 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>983432277</v>
+        <v>833365107</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -715,43 +673,20 @@
         <v>10546</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>653559249</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45775.726122685184</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10546</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" s="3"/>
@@ -990,8 +925,8 @@
     <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="3"/>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" s="3"/>
@@ -1214,14 +1149,11 @@
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" s="3"/>
-    </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H163" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>